--- a/data/trans_dic/P1410-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P1410-Habitat-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02807971538617975</v>
+        <v>0.02719661616823829</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02193199505487863</v>
+        <v>0.02266256171624395</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.02875367023567066</v>
+        <v>0.02920524890706393</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.04348463878986871</v>
+        <v>0.04276021207244343</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.03007791461305521</v>
+        <v>0.03052448192095444</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.03318287935253737</v>
+        <v>0.03288045437797136</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.04601935877809633</v>
+        <v>0.04552086557751044</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.04120795730289109</v>
+        <v>0.04053816226353379</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.03204173008297849</v>
+        <v>0.03301046396764553</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.03109037951166278</v>
+        <v>0.0309274773154369</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.04218548005761306</v>
+        <v>0.04270838491714919</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.04488471258401107</v>
+        <v>0.04467142863990534</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.05785152815380157</v>
+        <v>0.05594931431298655</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.05160301229254306</v>
+        <v>0.05024855733790102</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.0592396413915862</v>
+        <v>0.06053629988248492</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.07505098795615769</v>
+        <v>0.07372047116778752</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.06136609225733508</v>
+        <v>0.06084972628627405</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.0673446986793101</v>
+        <v>0.06561559138100202</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.08545660365008292</v>
+        <v>0.08725990003356406</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.06856263506535325</v>
+        <v>0.06673377452068313</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.05396716833763776</v>
+        <v>0.05459750915675624</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.05261108682164296</v>
+        <v>0.05319702472266392</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.06684166442293708</v>
+        <v>0.06741684194064201</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.06521592259647108</v>
+        <v>0.06583844570204408</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.03301778994287034</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.04418819673072087</v>
+        <v>0.04418819673072086</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.04081975183695963</v>
@@ -833,7 +833,7 @@
         <v>0.03606120025407248</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.04480179892268804</v>
+        <v>0.04480179892268803</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.03047807431539297</v>
+        <v>0.03156013941501994</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02766442441079887</v>
+        <v>0.02802053460392621</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02842821249299733</v>
+        <v>0.02858607777022835</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.03439367536359729</v>
+        <v>0.03459159153082739</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.02659597423978519</v>
+        <v>0.02822891531093362</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.03089951458263979</v>
+        <v>0.03127453177977019</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.02247922852810938</v>
+        <v>0.02258979744320964</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.03490797325183688</v>
+        <v>0.03530164690135666</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.0323914124354012</v>
+        <v>0.03252608642559834</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.03236631310210246</v>
+        <v>0.03283820938163325</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.02855924237748932</v>
+        <v>0.02848954211922113</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.03763328076257272</v>
+        <v>0.03789985235151925</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.05852244120800147</v>
+        <v>0.05729126971658042</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.0528615861931459</v>
+        <v>0.0534640134843708</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.05219626808581265</v>
+        <v>0.05277427179093675</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.05835774651679262</v>
+        <v>0.05777304593667361</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.05352948148759712</v>
+        <v>0.05435342425799376</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.05606620689076684</v>
+        <v>0.05584828038272036</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.04673667144334268</v>
+        <v>0.04536592503911403</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.05406879651319097</v>
+        <v>0.05415840780355356</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.05171796285072673</v>
+        <v>0.05058652000259165</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.04970266677767844</v>
+        <v>0.05167430157035103</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.04609982368343864</v>
+        <v>0.04518328559943182</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.05285811255552872</v>
+        <v>0.05293069769915122</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.03869945400091041</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.05969599562357129</v>
+        <v>0.05969599562357128</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.04673842956703008</v>
@@ -969,7 +969,7 @@
         <v>0.04221674039144857</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.04697567189172909</v>
+        <v>0.04697567189172908</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.03797514464463545</v>
+        <v>0.0381116377158337</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02231092261710818</v>
+        <v>0.02218931098278367</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02515189356592835</v>
+        <v>0.02636492682672289</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.04477696544601877</v>
+        <v>0.0440355479659582</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.03346058505159662</v>
+        <v>0.03378803968847823</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.01808403095764032</v>
+        <v>0.01864631504614044</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.03217254464166807</v>
+        <v>0.03183296433440893</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.02510293883737394</v>
+        <v>0.02495364818654743</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.03898833547681548</v>
+        <v>0.03914359589156044</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.02306829998640469</v>
+        <v>0.02369242020277077</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.03248393437011579</v>
+        <v>0.03229654049109306</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.03717385043058186</v>
+        <v>0.03837456656787321</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.07303945343711156</v>
+        <v>0.0738754557572975</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.05272003507365283</v>
+        <v>0.0514427238655101</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.05479102380817968</v>
+        <v>0.05436114989459878</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.08071943642791131</v>
+        <v>0.08144957832785621</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.06545879581750944</v>
+        <v>0.06664371228025787</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.0436395279529759</v>
+        <v>0.04440545149713503</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.06341918705640816</v>
+        <v>0.06346756826372842</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.04671826108485452</v>
+        <v>0.04729441238447315</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.0639691318563546</v>
+        <v>0.06163845429753436</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.04238128572489439</v>
+        <v>0.04355840844718567</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.05284811141522996</v>
+        <v>0.05343001511100669</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.05860746908522217</v>
+        <v>0.05901673707570525</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.04408706431279065</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.04488243174323389</v>
+        <v>0.04488243174323388</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.03621369747803534</v>
@@ -1105,7 +1105,7 @@
         <v>0.03819378405166216</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.05048906803654676</v>
+        <v>0.05048906803654675</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.03579611415227661</v>
+        <v>0.03476927309309009</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.03226856749729032</v>
+        <v>0.03307652722372685</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02184862504969507</v>
+        <v>0.02157585329807984</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.04488900695328935</v>
+        <v>0.04478163628582314</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01812349227212819</v>
+        <v>0.01695811788578978</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.03521838830166727</v>
+        <v>0.035895536592348</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.0322622533397136</v>
+        <v>0.03229502110980381</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.03548090194086764</v>
+        <v>0.03499443631351228</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.02845039424985913</v>
+        <v>0.02834524073575741</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.03665326931921433</v>
+        <v>0.03702444267971518</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.02916641618441812</v>
+        <v>0.03046884377658955</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.04308741459420656</v>
+        <v>0.04325343413175727</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.06206612169647466</v>
+        <v>0.06007987404067646</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.06069834915633969</v>
+        <v>0.06065494115019347</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.04405928428033335</v>
+        <v>0.04455294640965791</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.07025997915999053</v>
+        <v>0.07093369066997592</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.03911581367481863</v>
+        <v>0.03652159442962934</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.06127992878736962</v>
+        <v>0.0625501203438214</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.06160412045026387</v>
+        <v>0.0604859071122977</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.05591534263833924</v>
+        <v>0.05432821944657651</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.0450968810416132</v>
+        <v>0.04512601219820746</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.0556102680206256</v>
+        <v>0.05660113265109698</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.04732553416665793</v>
+        <v>0.04839530183334551</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.05834748590958127</v>
+        <v>0.05923422135762183</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.03757930392139987</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.05410503543048416</v>
+        <v>0.05410503543048414</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.03749427037481552</v>
@@ -1241,7 +1241,7 @@
         <v>0.04137330976841951</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.048764213079194</v>
+        <v>0.04876421307919401</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.03900027898647941</v>
+        <v>0.03894281461263312</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.03229926944250913</v>
+        <v>0.03268903234787433</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.03089336057258889</v>
+        <v>0.03176631023465</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.04741618525527302</v>
+        <v>0.04711764813906169</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.03150103171217517</v>
+        <v>0.03129663667719019</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.03536255506807281</v>
+        <v>0.03536719525182312</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.03770325815068848</v>
+        <v>0.03830071900844918</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.03904907007757224</v>
+        <v>0.03856094985357014</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.03657946033317552</v>
+        <v>0.0365154633036894</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.03567362293135719</v>
+        <v>0.03576772445043486</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.03659295757652977</v>
+        <v>0.03635389394962036</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.04457084396881287</v>
+        <v>0.04448581522979106</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.05352067719743866</v>
+        <v>0.05355845896557711</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.04639888393738963</v>
+        <v>0.04577139515693036</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.04394030794799772</v>
+        <v>0.04463377889262642</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.06235354359166959</v>
+        <v>0.06166053660621145</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.044853782547829</v>
+        <v>0.04500453011085189</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.0482577176488562</v>
+        <v>0.04907084107366125</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.05226565948280988</v>
+        <v>0.05318422671458131</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.05010991922348631</v>
+        <v>0.04940168977955887</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.04659699817191171</v>
+        <v>0.046303080971237</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.04501323437503094</v>
+        <v>0.04549333223087636</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.04641976603389505</v>
+        <v>0.04636137467478451</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.05344702660870623</v>
+        <v>0.05380932543341041</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>19488</v>
+        <v>18875</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>15428</v>
+        <v>15942</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>19403</v>
+        <v>19708</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>29975</v>
+        <v>29476</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>20704</v>
+        <v>21012</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>23130</v>
+        <v>22919</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>30964</v>
+        <v>30628</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>30194</v>
+        <v>29703</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>44293</v>
+        <v>45632</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>43543</v>
+        <v>43315</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>56851</v>
+        <v>57555</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>63828</v>
+        <v>63525</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>40150</v>
+        <v>38829</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>36301</v>
+        <v>35348</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>39975</v>
+        <v>40850</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>51735</v>
+        <v>50818</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>42241</v>
+        <v>41886</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>46943</v>
+        <v>45737</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>57499</v>
+        <v>58712</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>50237</v>
+        <v>48897</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>74602</v>
+        <v>75474</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>73683</v>
+        <v>74503</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>90078</v>
+        <v>90854</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>92740</v>
+        <v>93626</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>29314</v>
+        <v>30355</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>28161</v>
+        <v>28523</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>29066</v>
+        <v>29227</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>36076</v>
+        <v>36284</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>25755</v>
+        <v>27337</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>31758</v>
+        <v>32144</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>23444</v>
+        <v>23559</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>37358</v>
+        <v>37779</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>62522</v>
+        <v>62782</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>66213</v>
+        <v>67178</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>58985</v>
+        <v>58841</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>79749</v>
+        <v>80314</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>56287</v>
+        <v>55103</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>53810</v>
+        <v>54424</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>53367</v>
+        <v>53958</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>61212</v>
+        <v>60599</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>51838</v>
+        <v>52635</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>57624</v>
+        <v>57400</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>48742</v>
+        <v>47313</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>57864</v>
+        <v>57960</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>99826</v>
+        <v>97642</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>101679</v>
+        <v>105712</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>95212</v>
+        <v>93319</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>112012</v>
+        <v>112166</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>25766</v>
+        <v>25859</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>16903</v>
+        <v>16811</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>19104</v>
+        <v>20026</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>35876</v>
+        <v>35282</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>22882</v>
+        <v>23106</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>14054</v>
+        <v>14491</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>25256</v>
+        <v>24989</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>20324</v>
+        <v>20203</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>53116</v>
+        <v>53327</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>35405</v>
+        <v>36363</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>50173</v>
+        <v>49884</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>59881</v>
+        <v>61815</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>49558</v>
+        <v>50125</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>39942</v>
+        <v>38974</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>41617</v>
+        <v>41290</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>64674</v>
+        <v>65259</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>44763</v>
+        <v>45574</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>33916</v>
+        <v>34511</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>49785</v>
+        <v>49823</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>37824</v>
+        <v>38290</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>87148</v>
+        <v>83973</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>65047</v>
+        <v>66853</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>81627</v>
+        <v>82526</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>94407</v>
+        <v>95066</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>33728</v>
+        <v>32760</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>30582</v>
+        <v>31348</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>20485</v>
+        <v>20229</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>44443</v>
+        <v>44337</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>18823</v>
+        <v>17613</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>37046</v>
+        <v>37759</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>33675</v>
+        <v>33709</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>39640</v>
+        <v>39097</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>56356</v>
+        <v>56147</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>73293</v>
+        <v>74036</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>57789</v>
+        <v>60369</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>90798</v>
+        <v>91148</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>58480</v>
+        <v>56609</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>57526</v>
+        <v>57485</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>41309</v>
+        <v>41771</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>69562</v>
+        <v>70229</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>40626</v>
+        <v>37932</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>64460</v>
+        <v>65797</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>64301</v>
+        <v>63134</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>62470</v>
+        <v>60697</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>89329</v>
+        <v>89387</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>111201</v>
+        <v>113182</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>93768</v>
+        <v>95888</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>122955</v>
+        <v>124824</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>127786</v>
+        <v>127598</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>110682</v>
+        <v>112018</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>104863</v>
+        <v>107826</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>167357</v>
+        <v>166303</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>106448</v>
+        <v>105758</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>125676</v>
+        <v>125692</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>133641</v>
+        <v>135759</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>145643</v>
+        <v>143823</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>243463</v>
+        <v>243037</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>249027</v>
+        <v>249684</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>253915</v>
+        <v>252256</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>323552</v>
+        <v>322935</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>175363</v>
+        <v>175487</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>158999</v>
+        <v>156848</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>149149</v>
+        <v>151503</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>220078</v>
+        <v>217632</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>151570</v>
+        <v>152079</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>171504</v>
+        <v>174394</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>185258</v>
+        <v>188514</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>186898</v>
+        <v>184256</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>310138</v>
+        <v>308181</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>314224</v>
+        <v>317575</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>322102</v>
+        <v>321697</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>387987</v>
+        <v>390617</v>
       </c>
     </row>
     <row r="24">
